--- a/pred_ohlcv/54_21/2019-10-26 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 WET ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>395947.80701406</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>395947.80701406</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-6428726.417261615</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-6649957.363361615</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-6643261.520461615</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-5519993.241056036</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-5531198.148756037</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-5531188.148756037</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>8573301.980925225</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>83243511.11764172</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>83243511.11764172</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>83243499.16604172</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>83166747.90314171</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>83164207.80394171</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>83174640.02104171</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>83174363.79034171</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>83179719.08794171</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>83299958.74564171</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>83203835.90944171</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>83201365.90944171</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 WET ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>395947.80701406</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>395947.80701406</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -600,7 +600,7 @@
         <v>417298.31401406</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>519742.7354140599</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>519752.7354140599</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-6428726.417261615</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-6649957.363361615</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-6643261.520461615</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-5519993.241056036</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-5531198.148756037</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-5531188.148756037</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>8573301.980925225</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>83397210.71916912</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>83397210.71916912</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>83396601.48584171</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>83252288.96154171</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>83252288.96154171</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>83245996.59594172</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>83245996.59594172</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>83245996.59594172</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>83246286.59594172</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>83243511.11764172</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>83243511.11764172</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>83166747.90314171</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>83164207.80394171</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>83174640.02104171</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>83174363.79034171</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>83174373.79034171</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
